--- a/data/database/Power_WeightsK.xlsx
+++ b/data/database/Power_WeightsK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30834840-538D-40B6-819A-68A83C076B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA3106C-6B36-4940-8D5D-2D7369E432CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="58" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="52">
   <si>
     <t>k0001</t>
   </si>
@@ -343,9 +343,6 @@
     <t>dataSource</t>
   </si>
   <si>
-    <t>Which package this node belongs to</t>
-  </si>
-  <si>
     <t>Where the data for the entry comes from</t>
   </si>
   <si>
@@ -377,6 +374,12 @@
   </si>
   <si>
     <t>TestSource1-Manual2.1</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
+  </si>
+  <si>
+    <t>Scenario-dependent</t>
   </si>
 </sst>
 </file>
@@ -978,7 +981,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>25</v>
@@ -995,7 +998,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>24</v>
@@ -1007,21 +1010,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -1029,16 +1032,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1046,16 +1049,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1067,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1082,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1097,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1112,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1127,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1142,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1157,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1172,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -1187,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1202,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1217,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1232,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1247,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1262,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1277,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1292,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1307,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1322,10 +1325,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1337,10 +1340,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1352,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -1367,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1382,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1397,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -1412,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1473,7 +1476,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>25</v>
@@ -1490,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>24</v>
@@ -1502,21 +1505,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -1524,16 +1527,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1541,16 +1544,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1562,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1577,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1592,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1607,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1622,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1637,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1652,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1667,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -1682,10 +1685,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1697,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1712,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1727,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1742,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1757,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1772,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1787,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1802,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1817,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1832,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1847,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -1862,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1877,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1892,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -1907,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
